--- a/xll_option.xlsx
+++ b/xll_option.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kalx\source\repos\xlladdins\xlloption\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kalx\source\repos\xlladdins\xll_option\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F83E474-A3E7-4A41-9913-0EEC2889585B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A27E1572-CACD-4A29-AEE8-695693D3D671}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8145" yWindow="915" windowWidth="20595" windowHeight="13215" activeTab="1" xr2:uid="{44AEB816-CB2A-4A0A-B718-E5B5191DFF2A}"/>
+    <workbookView xWindow="6930" yWindow="4530" windowWidth="17685" windowHeight="10470" activeTab="1" xr2:uid="{44AEB816-CB2A-4A0A-B718-E5B5191DFF2A}"/>
   </bookViews>
   <sheets>
     <sheet name="Option" sheetId="2" r:id="rId1"/>
@@ -41,8 +41,40 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -307,15 +339,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="11" fontId="4" fillId="3" borderId="5" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="3"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="4" fillId="3" borderId="5" xfId="3" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="3" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="3"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Input" xfId="2" builtinId="20"/>
@@ -652,9 +684,9 @@
       <c r="B4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="5">
-        <f>_xll.VARIATE.NORMAL()</f>
-        <v>2043202465984</v>
+      <c r="C4" s="5" t="e">
+        <f ca="1">_xll.VARIATE.NORMAL()</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
@@ -682,14 +714,14 @@
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="17" t="s">
+      <c r="D9" s="21"/>
+      <c r="E9" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="17"/>
+      <c r="F9" s="20"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C10" s="6" t="s">
@@ -709,92 +741,92 @@
       <c r="B11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="11">
-        <f>_xll.OPTION.CALL.VALUE(m, f, s, k)</f>
-        <v>13.589108116054796</v>
-      </c>
-      <c r="D11" s="11">
-        <f>_xll.OPTION.PUT.VALUE(m, f, s, k)</f>
-        <v>3.5891081160547955</v>
-      </c>
-      <c r="E11" s="11">
-        <f>_xll.OPTION.DIGITAL_CALL.VALUE(m, f, s, k)</f>
-        <v>0.66523843579723096</v>
-      </c>
-      <c r="F11" s="11">
-        <f>_xll.OPTION.DIGITAL_PUT.VALUE(m, f, s, k)</f>
-        <v>0.33476156420276904</v>
+      <c r="C11" s="11" t="e">
+        <f ca="1">_xll.OPTION.CALL.VALUE(m, f, s, k)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D11" s="11" t="e">
+        <f ca="1">_xll.OPTION.PUT.VALUE(m, f, s, k)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E11" s="11" t="e">
+        <f ca="1">_xll.OPTION.DIGITAL_CALL.VALUE(m, f, s, k)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F11" s="11" t="e">
+        <f ca="1">_xll.OPTION.DIGITAL_PUT.VALUE(m, f, s, k)</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="11">
-        <f>_xll.OPTION.CALL.DELTA(m, f, s, k)</f>
-        <v>0.73460567337805582</v>
-      </c>
-      <c r="D12" s="11">
-        <f>_xll.OPTION.PUT.DELTA(m, f, s, k)</f>
-        <v>-0.26539432662194418</v>
-      </c>
-      <c r="E12" s="11">
-        <f>_xll.OPTION.DIGITAL_CALL.DELTA(m, f, s, k)</f>
-        <v>1.6389546714475921E-2</v>
-      </c>
-      <c r="F12" s="11">
-        <f>_xll.OPTION.DIGITAL_PUT.DELTA(m, f, s, k)</f>
-        <v>-1.6389546714475921E-2</v>
+      <c r="C12" s="11" t="e">
+        <f ca="1">_xll.OPTION.CALL.DELTA(m, f, s, k)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D12" s="11" t="e">
+        <f ca="1">_xll.OPTION.PUT.DELTA(m, f, s, k)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E12" s="11" t="e">
+        <f ca="1">_xll.OPTION.DIGITAL_CALL.DELTA(m, f, s, k)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F12" s="11" t="e">
+        <f ca="1">_xll.OPTION.DIGITAL_PUT.DELTA(m, f, s, k)</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="11">
-        <f>_xll.OPTION.GAMMA(m, f, s, k)</f>
-        <v>1.6389546714475921E-2</v>
+      <c r="C13" s="11" t="e">
+        <f ca="1">_xll.OPTION.GAMMA(m, f, s, k)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="D13" s="11"/>
-      <c r="E13" s="11">
-        <f>_xll.OPTION.DIGITAL_CALL.GAMMA(m, f, s, k)</f>
-        <v>9.1053037302644014E-4</v>
-      </c>
-      <c r="F13" s="11">
-        <f>_xll.OPTION.DIGITAL_PUT.GAMMA(m, f, s, k)</f>
-        <v>-9.1053037302644014E-4</v>
+      <c r="E13" s="11" t="e">
+        <f ca="1">_xll.OPTION.DIGITAL_CALL.GAMMA(m, f, s, k)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F13" s="11" t="e">
+        <f ca="1">_xll.OPTION.DIGITAL_PUT.GAMMA(m, f, s, k)</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="11">
-        <f>_xll.OPTION.VEGA(m, f, s, k)</f>
-        <v>32.779093428951846</v>
+      <c r="C14" s="11" t="e">
+        <f ca="1">_xll.OPTION.VEGA(m, f, s, k)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="D14" s="11"/>
-      <c r="E14" s="11">
-        <f>_xll.OPTION.DIGITAL_CALL.VEGA(m, f, s, k)</f>
-        <v>-1.1414455708470743</v>
-      </c>
-      <c r="F14" s="11">
-        <f>_xll.OPTION.DIGITAL_PUT.VEGA(m, f, s, k)</f>
-        <v>1.1414455708470743</v>
+      <c r="E14" s="11" t="e">
+        <f ca="1">_xll.OPTION.DIGITAL_CALL.VEGA(m, f, s, k)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F14" s="11" t="e">
+        <f ca="1">_xll.OPTION.DIGITAL_PUT.VEGA(m, f, s, k)</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="8">
-        <f>(C11-D11)-(f-k)</f>
-        <v>0</v>
+      <c r="C16" s="8" t="e">
+        <f ca="1">(C11-D11)-(f-k)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="D16" s="8"/>
-      <c r="E16" s="8">
-        <f>E11+F11-1</f>
-        <v>0</v>
+      <c r="E16" s="8" t="e">
+        <f ca="1">E11+F11-1</f>
+        <v>#VALUE!</v>
       </c>
       <c r="F16" s="8"/>
     </row>
@@ -812,8 +844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7F29B52-893F-45E0-AD97-F4F6C83DFABD}">
   <dimension ref="B2:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -824,18 +856,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="17" t="s">
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
@@ -1267,9 +1299,13 @@
       <c r="B18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="14">
-        <f>_xll.VARIATE.NORMAL()</f>
-        <v>2043202466656</v>
+      <c r="C18" s="14" cm="1">
+        <f t="array" ref="C18">_xll.\VARIATE.NORMAL()</f>
+        <v>1792769701600</v>
+      </c>
+      <c r="D18" cm="1">
+        <f t="array" ref="D18">_xll.VARIATE.CDF(m,0,0)</f>
+        <v>0.5</v>
       </c>
       <c r="K18" s="3"/>
     </row>
@@ -1277,9 +1313,9 @@
       <c r="B19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="e">
         <f>_xll.OPTION.IMPLIED(C18, C4, C14, C6)</f>
-        <v>0.2000000000000198</v>
+        <v>#NUM!</v>
       </c>
       <c r="D19" s="10"/>
     </row>
@@ -1317,21 +1353,21 @@
       <c r="B22" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="3" t="e">
         <f t="array" ref="F22">_xll.OPTION.PUT.VALUE(m,f,s,k)</f>
-        <v>3.5891081160547955</v>
-      </c>
-      <c r="G22" s="20">
+        <v>#NUM!</v>
+      </c>
+      <c r="G22" s="18" t="e">
         <f>C14-F22</f>
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
+        <v>#NUM!</v>
+      </c>
+      <c r="J22" s="3" t="e">
         <f t="array" ref="J22">_xll.OPTION.DIGITAL_PUT.VALUE(m,f,s,k)</f>
-        <v>0.33476156420276904</v>
-      </c>
-      <c r="K22" s="20">
+        <v>#NUM!</v>
+      </c>
+      <c r="K22" s="18" t="e">
         <f>J22-L14</f>
-        <v>0</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
@@ -1342,33 +1378,33 @@
         <f>(D14-E14)/(2*eps)</f>
         <v>-0.26539432673544638</v>
       </c>
-      <c r="E23" s="19">
+      <c r="E23" s="17">
         <f>C15-D23</f>
         <v>1.1350231865492333E-10</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="3" t="e">
         <f t="array" ref="F23">_xll.OPTION.PUT.DELTA(m,f,s,k)</f>
-        <v>-0.26539432662194418</v>
-      </c>
-      <c r="G23" s="20">
+        <v>#NUM!</v>
+      </c>
+      <c r="G23" s="18" t="e">
         <f>C15-F23</f>
-        <v>0</v>
+        <v>#NUM!</v>
       </c>
       <c r="H23">
         <f>(H14-I14)/(2*eps)</f>
         <v>-1.8210607456936589E-2</v>
       </c>
-      <c r="I23" s="21">
+      <c r="I23" s="19">
         <f>H23-L15</f>
         <v>-1.8210607424606652E-3</v>
       </c>
-      <c r="J23" s="3">
+      <c r="J23" s="3" t="e">
         <f t="array" ref="J23">_xll.OPTION.DIGITAL_PUT.DELTA(m,f,s,k)</f>
-        <v>-1.6389546714475921E-2</v>
-      </c>
-      <c r="K23" s="21">
+        <v>#NUM!</v>
+      </c>
+      <c r="K23" s="19" t="e">
         <f>J23-L15</f>
-        <v>0</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
@@ -1379,33 +1415,33 @@
         <f>(D14-2*C14+E14)/(eps*eps)</f>
         <v>1.6389563484153769E-2</v>
       </c>
-      <c r="E24" s="19">
+      <c r="E24" s="17">
         <f>C16-D24</f>
         <v>-1.6769677844280517E-8</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="3" t="e">
         <f t="array" ref="F24">_xll.OPTION.GAMMA(m,f,s,k)</f>
-        <v>1.6389546714475921E-2</v>
-      </c>
-      <c r="G24" s="20">
+        <v>#NUM!</v>
+      </c>
+      <c r="G24" s="18" t="e">
         <f>C16-F24</f>
-        <v>0</v>
+        <v>#NUM!</v>
       </c>
       <c r="H24">
         <f>(H14-2*L14+I14)/(eps*eps)</f>
         <v>5.7072291337334491E-4</v>
       </c>
-      <c r="I24" s="21">
+      <c r="I24" s="19">
         <f t="shared" ref="I24:I25" si="4">H24-L16</f>
         <v>1.481253286399785E-3</v>
       </c>
-      <c r="J24" s="3">
+      <c r="J24" s="3" t="e">
         <f t="array" ref="J24">_xll.OPTION.DIGITAL_PUT.GAMMA(m,f,s,k)</f>
-        <v>-9.1053037302644014E-4</v>
-      </c>
-      <c r="K24" s="21">
+        <v>#NUM!</v>
+      </c>
+      <c r="K24" s="19" t="e">
         <f>J24-L16</f>
-        <v>0</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
@@ -1416,33 +1452,33 @@
         <f>(F14-G14)/(2*eps)</f>
         <v>32.778988124805508</v>
       </c>
-      <c r="E25" s="19">
+      <c r="E25" s="17">
         <f>C17-D25</f>
         <v>1.0530414634501994E-4</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="3" t="e">
         <f t="array" ref="F25">_xll.OPTION.VEGA(m,f,s,k)</f>
-        <v>32.779093428951846</v>
-      </c>
-      <c r="G25" s="20">
+        <v>#NUM!</v>
+      </c>
+      <c r="G25" s="18" t="e">
         <f>C17-F25</f>
-        <v>0</v>
+        <v>#NUM!</v>
       </c>
       <c r="H25">
         <f>(J14-K14)/(2*eps)</f>
         <v>1.141461610230543</v>
       </c>
-      <c r="I25" s="21">
+      <c r="I25" s="19">
         <f t="shared" si="4"/>
         <v>1.6039383468502422E-5</v>
       </c>
-      <c r="J25" s="3">
+      <c r="J25" s="3" t="e">
         <f t="array" ref="J25">_xll.OPTION.DIGITAL_PUT.VEGA(m,f,s,k)</f>
-        <v>1.1414455708470743</v>
-      </c>
-      <c r="K25" s="21">
+        <v>#NUM!</v>
+      </c>
+      <c r="K25" s="19" t="e">
         <f>J25-L17</f>
-        <v>0</v>
+        <v>#NUM!</v>
       </c>
     </row>
   </sheetData>

--- a/xll_option.xlsx
+++ b/xll_option.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kalx\source\repos\xlladdins\xll_option\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A27E1572-CACD-4A29-AEE8-695693D3D671}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D075568-B653-4B68-8F23-5B9C160DBDE8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6930" yWindow="4530" windowWidth="17685" windowHeight="10470" activeTab="1" xr2:uid="{44AEB816-CB2A-4A0A-B718-E5B5191DFF2A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{44AEB816-CB2A-4A0A-B718-E5B5191DFF2A}"/>
   </bookViews>
   <sheets>
     <sheet name="Option" sheetId="2" r:id="rId1"/>
     <sheet name="Check" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="delta">Check!$C$15:$G$15</definedName>
@@ -22,6 +23,7 @@
     <definedName name="dN_">Check!$C$11:$K$11</definedName>
     <definedName name="eps">Check!$C$3</definedName>
     <definedName name="f" localSheetId="0">Option!$C$5</definedName>
+    <definedName name="f" localSheetId="2">Sheet1!$D$4</definedName>
     <definedName name="f">Check!$C$4:$K$4</definedName>
     <definedName name="gamma">Check!$C$16:$G$16</definedName>
     <definedName name="k" localSheetId="0">Option!$C$7</definedName>
@@ -31,6 +33,7 @@
     <definedName name="N">Check!$C$8:$K$8</definedName>
     <definedName name="N_">Check!$C$9:$K$9</definedName>
     <definedName name="s" localSheetId="0">Option!$C$6</definedName>
+    <definedName name="s" localSheetId="2">Sheet1!$D$5</definedName>
     <definedName name="s">Check!$C$5:$K$5</definedName>
     <definedName name="value">Check!$C$14:$G$14</definedName>
     <definedName name="vega">Check!$C$17:$G$17</definedName>
@@ -78,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="30">
   <si>
     <t>f</t>
   </si>
@@ -163,6 +166,12 @@
   <si>
     <t>dN_</t>
   </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>logistic</t>
+  </si>
 </sst>
 </file>
 
@@ -173,7 +182,7 @@
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,6 +215,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -301,13 +317,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -348,11 +365,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Input" xfId="2" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Output" xfId="3" builtinId="21"/>
+    <cellStyle name="Percent" xfId="4" builtinId="5"/>
     <cellStyle name="Title" xfId="1" builtinId="15"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -366,6 +385,2591 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$7:$B$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$7:$C$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>4.3983595980427184E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.3990966513188049E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.5615814774676581E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.8950158300894135E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.4049077376886892E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.11092083467945553</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.12951759566589172</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.14972746563574482</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.17136859204780733</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1941860549832129</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.2178521770325505</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.24197072451914334</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.26608524989875482</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.28969155276148273</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.31225393336676122</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.33322460289179962</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.35206532676429947</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.36827014030332328</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.38138781546052403</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.39104269397545582</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.39695254747701175</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.39894228040143265</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.39695254747701175</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.39104269397545582</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.38138781546052403</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.36827014030332328</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.35206532676429947</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.33322460289179962</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.31225393336676122</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.28969155276148267</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.26608524989875482</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.24197072451914334</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.21785217703255055</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.19418605498321292</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.17136859204780738</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.14972746563574485</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.12951759566589172</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.11092083467945557</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9.4049077376886933E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7.8950158300894177E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6.5615814774676581E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2315-41D0-924D-EB972D9B3225}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$7:$B$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$7:$D$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>3.7406994873150266E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.3804485623477954E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.1225848663434964E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.9809740132606183E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.9704470689839662E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.1065082079790129E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.4048723578568541E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.10880786118148424</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.12548082661844451</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.14417924296111256</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.16497198432624338</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.18786558283236218</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.2127814336406389</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.23953080787771314</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.2677895756791393</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.2970756247068968</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.32673310235297287</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.35592856495173131</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.38366451532547252</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.40881520246197511</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.43018753019765577</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.44660628321101875</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.45701787903378838</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.46060134926128465</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.45687067340769921</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.44575062286573297</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.42761026718783418</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.40324457968947192</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.37380404754107416</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.34068244896781363</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.30538109873755159</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.26937156074829266</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.23397724698360206</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.2002883655345663</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.16911649168468645</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.14098707347492739</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.11616233094851552</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9.4684103483545889E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7.6426061185669428E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6.1146495029372888E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.8535616272378283E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2315-41D0-924D-EB972D9B3225}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="136723552"/>
+        <c:axId val="136732288"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="136723552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="136732288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="136732288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="136723552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$7:$F$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>81.464731641141455</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>82.283465805601836</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>83.110428385212572</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>83.945702076920739</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>84.789370408791569</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>85.641517748361352</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>86.502229311074132</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>87.371591168803448</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>88.249690258459552</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>89.136614390683135</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>90.032452258626563</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>90.937293446823148</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>91.851228440145732</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>92.774348632855279</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>93.706746337740341</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>94.648514795348376</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>95.599748183309984</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>96.560541625756642</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>97.530991202833263</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>98.511193960306258</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>99.501247919268238</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>100.5012520859401</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>101.51130646157189</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>102.53151205244289</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>103.56197087996233</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>104.60278599087169</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>105.65406146754943</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>106.71590243841926</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>107.78841508846315</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>108.87170666983988</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>109.96588551261028</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>111.07106103557052</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>112.18734375719383</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>113.31484530668263</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>114.45367843513145</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>115.60395702680218</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>116.76579611051253</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>117.93931187113907</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>119.12462166123581</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>120.32184401276953</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>121.53109864897307</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$7:$I$47</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>0.14943706211863889</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14888161023033114</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14836048771020788</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14787600565996684</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.14743026761546607</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.14702513388440205</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.14666198573848974</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.14634156326002407</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.14606372190600991</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.14582714646842015</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.14562902249129611</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.14546467993792722</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.14532718878308284</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.14520705399044512</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.14509187770431264</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.14496622217408181</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.14481166612749297</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.14460716383626068</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.14432979745562452</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.14395587367923701</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.1434626364903113</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.14283003208008002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.14204280532451724</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.14109239452979944</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.13997833140181179</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.13870908474385632</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.13730177129037938</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.13578110351656894</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.13417748103599991</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.13252459531778216</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.13085689783614893</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.12920727972643456</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.1276052253173465</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.12607555444863117</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.1246378792230963</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.12330646158638679</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.12209060450978634</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.12099525223649538</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.1200217286529016</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.11916850010073253</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.11843189193031237</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E4A5-43F2-88E2-E0A21A5DA37D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="955250607"/>
+        <c:axId val="955251023"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="955250607"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="955251023"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="955251023"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="955250607"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EA3D649-B747-47F7-B0D6-483AFD9FE5AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96C649ED-F424-4CFD-ADB6-C6B16CC48105}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -667,7 +3271,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D1DE0E9-42ED-434D-9763-27344F6A1B8E}">
   <dimension ref="B2:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -684,9 +3290,9 @@
       <c r="B4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="5" t="e">
-        <f ca="1">_xll.VARIATE.NORMAL()</f>
-        <v>#NAME?</v>
+      <c r="C4" s="5" cm="1">
+        <f t="array" ref="C4">_xll.\VARIATE.NORMAL()</f>
+        <v>2163569983312</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
@@ -741,92 +3347,92 @@
       <c r="B11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="11" t="e">
-        <f ca="1">_xll.OPTION.CALL.VALUE(m, f, s, k)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D11" s="11" t="e">
-        <f ca="1">_xll.OPTION.PUT.VALUE(m, f, s, k)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E11" s="11" t="e">
-        <f ca="1">_xll.OPTION.DIGITAL_CALL.VALUE(m, f, s, k)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F11" s="11" t="e">
-        <f ca="1">_xll.OPTION.DIGITAL_PUT.VALUE(m, f, s, k)</f>
-        <v>#VALUE!</v>
+      <c r="C11" s="11">
+        <f>_xll.OPTION.CALL.VALUE(m, f, s, k)</f>
+        <v>13.589108116054796</v>
+      </c>
+      <c r="D11" s="11">
+        <f>_xll.OPTION.PUT.VALUE(m, f, s, k)</f>
+        <v>3.5891081160547955</v>
+      </c>
+      <c r="E11" s="11">
+        <f>_xll.OPTION.DIGITAL_CALL.VALUE(m, f, s, k)</f>
+        <v>0.66523843579723096</v>
+      </c>
+      <c r="F11" s="11">
+        <f>_xll.OPTION.DIGITAL_PUT.VALUE(m, f, s, k)</f>
+        <v>0.33476156420276904</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="11" t="e">
-        <f ca="1">_xll.OPTION.CALL.DELTA(m, f, s, k)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D12" s="11" t="e">
-        <f ca="1">_xll.OPTION.PUT.DELTA(m, f, s, k)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E12" s="11" t="e">
-        <f ca="1">_xll.OPTION.DIGITAL_CALL.DELTA(m, f, s, k)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F12" s="11" t="e">
-        <f ca="1">_xll.OPTION.DIGITAL_PUT.DELTA(m, f, s, k)</f>
-        <v>#VALUE!</v>
+      <c r="C12" s="11">
+        <f>_xll.OPTION.CALL.DELTA(m, f, s, k)</f>
+        <v>0.73460567337805582</v>
+      </c>
+      <c r="D12" s="11">
+        <f>_xll.OPTION.PUT.DELTA(m, f, s, k)</f>
+        <v>-0.26539432662194418</v>
+      </c>
+      <c r="E12" s="11">
+        <f>_xll.OPTION.DIGITAL_CALL.DELTA(m, f, s, k)</f>
+        <v>1.8210607460528803E-2</v>
+      </c>
+      <c r="F12" s="11">
+        <f>_xll.OPTION.DIGITAL_PUT.DELTA(m, f, s, k)</f>
+        <v>-1.8210607460528803E-2</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="11" t="e">
-        <f ca="1">_xll.OPTION.GAMMA(m, f, s, k)</f>
-        <v>#VALUE!</v>
+      <c r="C13" s="11">
+        <f>_xll.OPTION.GAMMA(m, f, s, k)</f>
+        <v>1.6389546714475921E-2</v>
       </c>
       <c r="D13" s="11"/>
-      <c r="E13" s="11" t="e">
-        <f ca="1">_xll.OPTION.DIGITAL_CALL.GAMMA(m, f, s, k)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F13" s="11" t="e">
-        <f ca="1">_xll.OPTION.DIGITAL_PUT.GAMMA(m, f, s, k)</f>
-        <v>#VALUE!</v>
+      <c r="E13" s="11">
+        <f>_xll.OPTION.DIGITAL_CALL.GAMMA(m, f, s, k)</f>
+        <v>2.0651063621296119E-4</v>
+      </c>
+      <c r="F13" s="11">
+        <f>_xll.OPTION.DIGITAL_PUT.GAMMA(m, f, s, k)</f>
+        <v>-2.0651063621296119E-4</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="11" t="e">
-        <f ca="1">_xll.OPTION.VEGA(m, f, s, k)</f>
-        <v>#VALUE!</v>
+      <c r="C14" s="11">
+        <f>_xll.OPTION.VEGA(m, f, s, k)</f>
+        <v>32.779093428951846</v>
       </c>
       <c r="D14" s="11"/>
-      <c r="E14" s="11" t="e">
-        <f ca="1">_xll.OPTION.DIGITAL_CALL.VEGA(m, f, s, k)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F14" s="11" t="e">
-        <f ca="1">_xll.OPTION.DIGITAL_PUT.VEGA(m, f, s, k)</f>
-        <v>#VALUE!</v>
+      <c r="E14" s="11">
+        <f>_xll.OPTION.DIGITAL_CALL.VEGA(m, f, s, k)</f>
+        <v>-1.1414455708470743</v>
+      </c>
+      <c r="F14" s="11">
+        <f>_xll.OPTION.DIGITAL_PUT.VEGA(m, f, s, k)</f>
+        <v>1.1414455708470743</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="8" t="e">
-        <f ca="1">(C11-D11)-(f-k)</f>
-        <v>#VALUE!</v>
+      <c r="C16" s="8">
+        <f>(C11-D11)-(f-k)</f>
+        <v>0</v>
       </c>
       <c r="D16" s="8"/>
-      <c r="E16" s="8" t="e">
-        <f ca="1">E11+F11-1</f>
-        <v>#VALUE!</v>
+      <c r="E16" s="8">
+        <f>E11+F11-1</f>
+        <v>0</v>
       </c>
       <c r="F16" s="8"/>
     </row>
@@ -844,8 +3450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7F29B52-893F-45E0-AD97-F4F6C83DFABD}">
   <dimension ref="B2:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -874,7 +3480,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="15">
-        <v>1E-3</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>11</v>
@@ -910,11 +3516,11 @@
       </c>
       <c r="D4">
         <f>C4+eps</f>
-        <v>100.001</v>
+        <v>100.000001</v>
       </c>
       <c r="E4">
         <f>C4-eps</f>
-        <v>99.998999999999995</v>
+        <v>99.999999000000003</v>
       </c>
       <c r="F4">
         <f>$C4</f>
@@ -926,11 +3532,11 @@
       </c>
       <c r="H4">
         <f>G4+eps</f>
-        <v>100.001</v>
+        <v>100.000001</v>
       </c>
       <c r="I4">
         <f>G4-eps</f>
-        <v>99.998999999999995</v>
+        <v>99.999999000000003</v>
       </c>
       <c r="J4">
         <f>$C4</f>
@@ -946,39 +3552,39 @@
         <v>1</v>
       </c>
       <c r="C5" s="13">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="D5">
         <f>$C5</f>
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="E5">
         <f t="shared" ref="E5" si="0">$C5</f>
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="F5">
         <f>$C5+eps</f>
-        <v>0.20100000000000001</v>
+        <v>0.10000100000000001</v>
       </c>
       <c r="G5">
         <f>$C5-eps</f>
-        <v>0.19900000000000001</v>
+        <v>9.9999000000000005E-2</v>
       </c>
       <c r="H5">
         <f>$C5</f>
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="I5">
         <f t="shared" ref="I5" si="1">$C5</f>
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="J5">
         <f>$C5+eps</f>
-        <v>0.20100000000000001</v>
+        <v>0.10000100000000001</v>
       </c>
       <c r="K5">
         <f>$C5-eps</f>
-        <v>0.19900000000000001</v>
+        <v>9.9999000000000005E-2</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
@@ -1027,31 +3633,31 @@
       </c>
       <c r="C7" s="3">
         <f t="array" ref="C7:K7">(LN(k/f) + s*s/2)/s</f>
-        <v>-0.42680257828913137</v>
+        <v>-1.0036051565782627</v>
       </c>
       <c r="D7" s="3">
-        <v>-0.42685257803913312</v>
+        <v>-1.0036052565782616</v>
       </c>
       <c r="E7" s="3">
-        <v>-0.42675257803912947</v>
+        <v>-1.0036050565782624</v>
       </c>
       <c r="F7" s="3">
-        <v>-0.42368166993943418</v>
+        <v>-1.0035941206320564</v>
       </c>
       <c r="G7" s="3">
-        <v>-0.4299498274262627</v>
+        <v>-1.0036161927351901</v>
       </c>
       <c r="H7" s="3">
-        <v>-0.42685257803913312</v>
+        <v>-1.0036052565782616</v>
       </c>
       <c r="I7" s="3">
-        <v>-0.42675257803912947</v>
+        <v>-1.0036050565782624</v>
       </c>
       <c r="J7" s="3">
-        <v>-0.42368166993943418</v>
+        <v>-1.0035941206320564</v>
       </c>
       <c r="K7" s="3">
-        <v>-0.4299498274262627</v>
+        <v>-1.0036161927351901</v>
       </c>
       <c r="M7" s="3"/>
     </row>
@@ -1061,31 +3667,31 @@
       </c>
       <c r="C8" s="3">
         <f t="array" ref="C8:K8">_xlfn.NORM.S.DIST(x,TRUE)</f>
-        <v>0.33476156420276892</v>
+        <v>0.15778448404418549</v>
       </c>
       <c r="D8" s="3">
-        <v>0.33474335388067344</v>
+        <v>0.15778445993434834</v>
       </c>
       <c r="E8" s="3">
-        <v>0.33477977509558732</v>
+        <v>0.15778450815402537</v>
       </c>
       <c r="F8" s="3">
-        <v>0.33589899246019439</v>
+        <v>0.15778714480773812</v>
       </c>
       <c r="G8" s="3">
-        <v>0.3336160692397333</v>
+        <v>0.15778182325929863</v>
       </c>
       <c r="H8" s="3">
-        <v>0.33474335388067344</v>
+        <v>0.15778445993434834</v>
       </c>
       <c r="I8" s="3">
-        <v>0.33477977509558732</v>
+        <v>0.15778450815402537</v>
       </c>
       <c r="J8" s="3">
-        <v>0.33589899246019439</v>
+        <v>0.15778714480773812</v>
       </c>
       <c r="K8" s="3">
-        <v>0.3336160692397333</v>
+        <v>0.15778182325929863</v>
       </c>
       <c r="M8" s="3"/>
     </row>
@@ -1095,31 +3701,31 @@
       </c>
       <c r="C9" s="3">
         <f t="array" ref="C9:K9">_xlfn.NORM.S.DIST(x - s,TRUE)</f>
-        <v>0.26539432662194407</v>
+        <v>0.13488222667903024</v>
       </c>
       <c r="D9" s="3">
-        <v>0.26537793741400351</v>
+        <v>0.13488220498017695</v>
       </c>
       <c r="E9" s="3">
-        <v>0.26541071650743053</v>
+        <v>0.13488224837788623</v>
       </c>
       <c r="F9" s="3">
-        <v>0.26609000294045437</v>
+        <v>0.13488440437647861</v>
       </c>
       <c r="G9" s="3">
-        <v>0.2646909518045355</v>
+        <v>0.13488004895997782</v>
       </c>
       <c r="H9" s="3">
-        <v>0.26537793741400351</v>
+        <v>0.13488220498017695</v>
       </c>
       <c r="I9" s="3">
-        <v>0.26541071650743053</v>
+        <v>0.13488224837788623</v>
       </c>
       <c r="J9" s="3">
-        <v>0.26609000294045437</v>
+        <v>0.13488440437647861</v>
       </c>
       <c r="K9" s="3">
-        <v>0.2646909518045355</v>
+        <v>0.13488004895997782</v>
       </c>
       <c r="M9" s="3"/>
     </row>
@@ -1129,31 +3735,31 @@
       </c>
       <c r="C10" s="3">
         <f t="array" ref="C10:K10">_xlfn.NORM.S.DIST(x,FALSE)</f>
-        <v>0.3642121492105761</v>
+        <v>0.24109838594580515</v>
       </c>
       <c r="D10" s="3">
-        <v>0.36420437654290005</v>
+        <v>0.24109836174904709</v>
       </c>
       <c r="E10" s="3">
-        <v>0.3642199212113077</v>
+        <v>0.24109841014256361</v>
       </c>
       <c r="F10" s="3">
-        <v>0.36469583122619975</v>
+        <v>0.2411010562871449</v>
       </c>
       <c r="G10" s="3">
-        <v>0.36372144683295959</v>
+        <v>0.24109571555368983</v>
       </c>
       <c r="H10" s="3">
-        <v>0.36420437654290005</v>
+        <v>0.24109836174904709</v>
       </c>
       <c r="I10" s="3">
-        <v>0.3642199212113077</v>
+        <v>0.24109841014256361</v>
       </c>
       <c r="J10" s="3">
-        <v>0.36469583122619975</v>
+        <v>0.2411010562871449</v>
       </c>
       <c r="K10" s="3">
-        <v>0.36372144683295959</v>
+        <v>0.24109571555368983</v>
       </c>
       <c r="M10" s="3"/>
     </row>
@@ -1163,31 +3769,31 @@
       </c>
       <c r="C11" s="3">
         <f t="array" ref="C11:K11">_xlfn.NORM.S.DIST(x - s,FALSE)</f>
-        <v>0.3277909342895185</v>
+        <v>0.21698854735122466</v>
       </c>
       <c r="D11" s="3">
-        <v>0.32778066108199921</v>
+        <v>0.21698852340425717</v>
       </c>
       <c r="E11" s="3">
-        <v>0.32780120710224797</v>
+        <v>0.21698857129819293</v>
       </c>
       <c r="F11" s="3">
-        <v>0.32822624810357981</v>
+        <v>0.21699095065843044</v>
       </c>
       <c r="G11" s="3">
-        <v>0.32734930214966362</v>
+        <v>0.21698614399832089</v>
       </c>
       <c r="H11" s="3">
-        <v>0.32778066108199921</v>
+        <v>0.21698852340425717</v>
       </c>
       <c r="I11" s="3">
-        <v>0.32780120710224797</v>
+        <v>0.21698857129819293</v>
       </c>
       <c r="J11" s="3">
-        <v>0.32822624810357981</v>
+        <v>0.21699095065843044</v>
       </c>
       <c r="K11" s="3">
-        <v>0.32734930214966362</v>
+        <v>0.21698614399832089</v>
       </c>
       <c r="M11" s="3"/>
     </row>
@@ -1205,39 +3811,39 @@
       </c>
       <c r="C14" s="7">
         <f t="array" ref="C14:G14">k*N-f*N_</f>
-        <v>3.5891081160547955</v>
+        <v>0.71238089607366994</v>
       </c>
       <c r="D14" s="3">
-        <v>3.5888427299228418</v>
+        <v>0.71238076119145077</v>
       </c>
       <c r="E14" s="3">
-        <v>3.5893735185763127</v>
+        <v>0.71238103095590688</v>
       </c>
       <c r="F14" s="3">
-        <v>3.6219090273720589</v>
+        <v>0.71240259504856951</v>
       </c>
       <c r="G14" s="3">
-        <v>3.5563510511224479</v>
+        <v>0.7123591973390937</v>
       </c>
       <c r="H14" s="3">
         <f>H8</f>
-        <v>0.33474335388067344</v>
+        <v>0.15778445993434834</v>
       </c>
       <c r="I14" s="3">
         <f t="shared" ref="I14:K14" si="3">I8</f>
-        <v>0.33477977509558732</v>
+        <v>0.15778450815402537</v>
       </c>
       <c r="J14" s="3">
         <f t="shared" si="3"/>
-        <v>0.33589899246019439</v>
+        <v>0.15778714480773812</v>
       </c>
       <c r="K14" s="3">
         <f t="shared" si="3"/>
-        <v>0.3336160692397333</v>
+        <v>0.15778182325929863</v>
       </c>
       <c r="L14" s="3">
         <f t="array" ref="L14">N</f>
-        <v>0.33476156420276892</v>
+        <v>0.15778448404418549</v>
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
@@ -1246,7 +3852,7 @@
       </c>
       <c r="C15" s="7">
         <f>-N_</f>
-        <v>-0.26539432662194407</v>
+        <v>-0.13488222667903024</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -1258,7 +3864,7 @@
       <c r="K15" s="3"/>
       <c r="L15">
         <f t="array" ref="L15">-dN_/(f*s)</f>
-        <v>-1.6389546714475924E-2</v>
+        <v>-2.1698854735122466E-2</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
@@ -1267,7 +3873,7 @@
       </c>
       <c r="C16" s="7">
         <f t="array" ref="C16">_xlfn.NORM.S.DIST(x-s,FALSE)/(f*s)</f>
-        <v>1.6389546714475924E-2</v>
+        <v>2.1698854735122466E-2</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
@@ -1275,7 +3881,7 @@
       <c r="K16" s="3"/>
       <c r="L16">
         <f t="array" ref="L16">-dN/(f*s)^2</f>
-        <v>-9.1053037302644025E-4</v>
+        <v>-2.4109838594580514E-3</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
@@ -1284,7 +3890,7 @@
       </c>
       <c r="C17" s="7">
         <f>f*_xlfn.NORM.S.DIST(x - s,FALSE)</f>
-        <v>32.779093428951853</v>
+        <v>21.698854735122467</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
@@ -1292,7 +3898,7 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3">
         <f t="array" ref="L17">-dN*(x - s)/s</f>
-        <v>1.1414455708470745</v>
+        <v>2.6607742197248672</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
@@ -1301,11 +3907,7 @@
       </c>
       <c r="C18" s="14" cm="1">
         <f t="array" ref="C18">_xll.\VARIATE.NORMAL()</f>
-        <v>1792769701600</v>
-      </c>
-      <c r="D18" cm="1">
-        <f t="array" ref="D18">_xll.VARIATE.CDF(m,0,0)</f>
-        <v>0.5</v>
+        <v>2163469681008</v>
       </c>
       <c r="K18" s="3"/>
     </row>
@@ -1353,21 +3955,21 @@
       <c r="B22" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F22" s="3" t="e">
+      <c r="F22" s="3">
         <f t="array" ref="F22">_xll.OPTION.PUT.VALUE(m,f,s,k)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G22" s="18" t="e">
+        <v>0.71238089607367172</v>
+      </c>
+      <c r="G22" s="18">
         <f>C14-F22</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J22" s="3" t="e">
+        <v>-1.7763568394002505E-15</v>
+      </c>
+      <c r="J22" s="3">
         <f t="array" ref="J22">_xll.OPTION.DIGITAL_PUT.VALUE(m,f,s,k)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="K22" s="18" t="e">
+        <v>0.15778448404418555</v>
+      </c>
+      <c r="K22" s="18">
         <f>J22-L14</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
@@ -1376,35 +3978,35 @@
       </c>
       <c r="D23" s="3">
         <f>(D14-E14)/(2*eps)</f>
-        <v>-0.26539432673544638</v>
+        <v>-0.13488222805335681</v>
       </c>
       <c r="E23" s="17">
         <f>C15-D23</f>
-        <v>1.1350231865492333E-10</v>
-      </c>
-      <c r="F23" s="3" t="e">
+        <v>1.3743265692145457E-9</v>
+      </c>
+      <c r="F23" s="3">
         <f t="array" ref="F23">_xll.OPTION.PUT.DELTA(m,f,s,k)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G23" s="18" t="e">
+        <v>-0.13488222667903027</v>
+      </c>
+      <c r="G23" s="18">
         <f>C15-F23</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="H23">
         <f>(H14-I14)/(2*eps)</f>
-        <v>-1.8210607456936589E-2</v>
+        <v>-2.4109838514529969E-2</v>
       </c>
       <c r="I23" s="19">
         <f>H23-L15</f>
-        <v>-1.8210607424606652E-3</v>
-      </c>
-      <c r="J23" s="3" t="e">
+        <v>-2.4109837794075023E-3</v>
+      </c>
+      <c r="J23" s="3">
         <f t="array" ref="J23">_xll.OPTION.DIGITAL_PUT.DELTA(m,f,s,k)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="K23" s="19" t="e">
+        <v>-2.4109838594580511E-2</v>
+      </c>
+      <c r="K23" s="19">
         <f>J23-L15</f>
-        <v>#NUM!</v>
+        <v>-2.4109838594580449E-3</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
@@ -1413,35 +4015,35 @@
       </c>
       <c r="D24" s="3">
         <f>(D14-2*C14+E14)/(eps*eps)</f>
-        <v>1.6389563484153769E-2</v>
+        <v>1.7763568394002505E-2</v>
       </c>
       <c r="E24" s="17">
         <f>C16-D24</f>
-        <v>-1.6769677844280517E-8</v>
-      </c>
-      <c r="F24" s="3" t="e">
+        <v>3.9352863411199618E-3</v>
+      </c>
+      <c r="F24" s="3">
         <f t="array" ref="F24">_xll.OPTION.GAMMA(m,f,s,k)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G24" s="18" t="e">
+        <v>2.1698854735122463E-2</v>
+      </c>
+      <c r="G24" s="18">
         <f>C16-F24</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="H24">
         <f>(H14-2*L14+I14)/(eps*eps)</f>
-        <v>5.7072291337334491E-4</v>
+        <v>2.7200464103316335E-3</v>
       </c>
       <c r="I24" s="19">
         <f t="shared" ref="I24:I25" si="4">H24-L16</f>
-        <v>1.481253286399785E-3</v>
-      </c>
-      <c r="J24" s="3" t="e">
+        <v>5.1310302697896853E-3</v>
+      </c>
+      <c r="J24" s="3">
         <f t="array" ref="J24">_xll.OPTION.DIGITAL_PUT.GAMMA(m,f,s,k)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="K24" s="19" t="e">
+        <v>-2.1785774478332563E-3</v>
+      </c>
+      <c r="K24" s="19">
         <f>J24-L16</f>
-        <v>#NUM!</v>
+        <v>2.3240641162479512E-4</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
@@ -1450,35 +4052,35 @@
       </c>
       <c r="D25" s="3">
         <f>(F14-G14)/(2*eps)</f>
-        <v>32.778988124805508</v>
+        <v>21.698854737906004</v>
       </c>
       <c r="E25" s="17">
         <f>C17-D25</f>
-        <v>1.0530414634501994E-4</v>
-      </c>
-      <c r="F25" s="3" t="e">
+        <v>-2.7835369564854773E-9</v>
+      </c>
+      <c r="F25" s="3">
         <f t="array" ref="F25">_xll.OPTION.VEGA(m,f,s,k)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G25" s="18" t="e">
+        <v>21.698854735122463</v>
+      </c>
+      <c r="G25" s="18">
         <f>C17-F25</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="H25">
         <f>(J14-K14)/(2*eps)</f>
-        <v>1.141461610230543</v>
+        <v>2.6607742197454209</v>
       </c>
       <c r="I25" s="19">
         <f t="shared" si="4"/>
-        <v>1.6039383468502422E-5</v>
-      </c>
-      <c r="J25" s="3" t="e">
+        <v>2.0553780899490448E-11</v>
+      </c>
+      <c r="J25" s="3">
         <f t="array" ref="J25">_xll.OPTION.DIGITAL_PUT.VEGA(m,f,s,k)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="K25" s="19" t="e">
+        <v>2.6607742197248667</v>
+      </c>
+      <c r="K25" s="19">
         <f>J25-L17</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1492,4 +4094,1611 @@
     <ignoredError sqref="F5:G5" formula="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DB2C01A-60B8-4508-AC29-30E36BF21D34}">
+  <dimension ref="B2:K47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C3" cm="1">
+        <f t="array" ref="C3">_xll.\VARIATE.NORMAL()</f>
+        <v>2163469681392</v>
+      </c>
+      <c r="D3" cm="1">
+        <f t="array" ref="D3">_xll.\VARIATE.NORMALIZE(E3)</f>
+        <v>2163646867888</v>
+      </c>
+      <c r="E3" cm="1">
+        <f t="array" ref="E3">_xll.\VARIATE.LOGISTIC(F3,G3)</f>
+        <v>2163646867792</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="I3" cm="1">
+        <f t="array" ref="I3">_xll.VARIATE.CUMULANT($D$3,0,3)</f>
+        <v>-0.57718400259736569</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>100</v>
+      </c>
+      <c r="I4" cm="1">
+        <f t="array" ref="I4">_xll.VARIATE.CUMULANT($D$3,0,4)</f>
+        <v>1.3326755110753505</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>-2</v>
+      </c>
+      <c r="C7" cm="1">
+        <f t="array" ref="C7">_xll.VARIATE.PDF($C$3, $B7, s)</f>
+        <v>4.3983595980427184E-2</v>
+      </c>
+      <c r="D7" cm="1">
+        <f t="array" ref="D7">_xll.VARIATE.PDF($D$3, $B7, s)</f>
+        <v>3.7406994873150266E-2</v>
+      </c>
+      <c r="F7">
+        <f t="shared" ref="F7:F47" si="0">f*EXP(s*$B7-s*s/2)</f>
+        <v>81.464731641141455</v>
+      </c>
+      <c r="G7" cm="1">
+        <f t="array" ref="G7">_xll.OPTION.VALUE($C$3, f, s,$F7)</f>
+        <v>18.602159696535864</v>
+      </c>
+      <c r="H7" cm="1">
+        <f t="array" ref="H7">_xll.OPTION.VALUE($D$3, f, s,$F7)</f>
+        <v>19.060324422463594</v>
+      </c>
+      <c r="I7" s="22" cm="1">
+        <f t="array" ref="I7">_xll.OPTION.IMPLIED($C$3, f, H7, F7)</f>
+        <v>0.14943706211863889</v>
+      </c>
+      <c r="J7" cm="1">
+        <f t="array" ref="J7">_xll.OPTION.VALUE($C$3, f,I7, F7)</f>
+        <v>19.060324422571227</v>
+      </c>
+      <c r="K7">
+        <f>H7-J7</f>
+        <v>-1.0763301361293998E-10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>-1.9</v>
+      </c>
+      <c r="C8" cm="1">
+        <f t="array" ref="C8">_xll.VARIATE.PDF($C$3, $B8, s)</f>
+        <v>5.3990966513188049E-2</v>
+      </c>
+      <c r="D8" cm="1">
+        <f t="array" ref="D8">_xll.VARIATE.PDF($D$3, $B8, s)</f>
+        <v>4.3804485623477954E-2</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>82.283465805601836</v>
+      </c>
+      <c r="G8" cm="1">
+        <f t="array" ref="G8">_xll.OPTION.VALUE($C$3, f, s,$F8)</f>
+        <v>17.804419067254742</v>
+      </c>
+      <c r="H8" cm="1">
+        <f t="array" ref="H8">_xll.OPTION.VALUE($D$3, f, s,$F8)</f>
+        <v>18.317581572872356</v>
+      </c>
+      <c r="I8" s="22" cm="1">
+        <f t="array" ref="I8">_xll.OPTION.IMPLIED($C$3, f, H8, F8)</f>
+        <v>0.14888161023033114</v>
+      </c>
+      <c r="J8" cm="1">
+        <f t="array" ref="J8">_xll.OPTION.VALUE($C$3, f,I8, F8)</f>
+        <v>18.317581572877984</v>
+      </c>
+      <c r="K8">
+        <f t="shared" ref="K8:K47" si="1">H8-J8</f>
+        <v>-5.6274984672199935E-12</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>-1.8</v>
+      </c>
+      <c r="C9" cm="1">
+        <f t="array" ref="C9">_xll.VARIATE.PDF($C$3, $B9, s)</f>
+        <v>6.5615814774676581E-2</v>
+      </c>
+      <c r="D9" cm="1">
+        <f t="array" ref="D9">_xll.VARIATE.PDF($D$3, $B9, s)</f>
+        <v>5.1225848663434964E-2</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>83.110428385212572</v>
+      </c>
+      <c r="G9" cm="1">
+        <f t="array" ref="G9">_xll.OPTION.VALUE($C$3, f, s,$F9)</f>
+        <v>17.004099846679892</v>
+      </c>
+      <c r="H9" cm="1">
+        <f t="array" ref="H9">_xll.OPTION.VALUE($D$3, f, s,$F9)</f>
+        <v>17.576833247551846</v>
+      </c>
+      <c r="I9" s="22" cm="1">
+        <f t="array" ref="I9">_xll.OPTION.IMPLIED($C$3, f, H9, F9)</f>
+        <v>0.14836048771020788</v>
+      </c>
+      <c r="J9" cm="1">
+        <f t="array" ref="J9">_xll.OPTION.VALUE($C$3, f,I9, F9)</f>
+        <v>17.576833247552088</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>-2.4158453015843406E-13</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>-1.7</v>
+      </c>
+      <c r="C10" cm="1">
+        <f t="array" ref="C10">_xll.VARIATE.PDF($C$3, $B10, s)</f>
+        <v>7.8950158300894135E-2</v>
+      </c>
+      <c r="D10" cm="1">
+        <f t="array" ref="D10">_xll.VARIATE.PDF($D$3, $B10, s)</f>
+        <v>5.9809740132606183E-2</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>83.945702076920739</v>
+      </c>
+      <c r="G10" cm="1">
+        <f t="array" ref="G10">_xll.OPTION.VALUE($C$3, f, s,$F10)</f>
+        <v>16.202345071435431</v>
+      </c>
+      <c r="H10" cm="1">
+        <f t="array" ref="H10">_xll.OPTION.VALUE($D$3, f, s,$F10)</f>
+        <v>16.839178347109979</v>
+      </c>
+      <c r="I10" s="22" cm="1">
+        <f t="array" ref="I10">_xll.OPTION.IMPLIED($C$3, f, H10, F10)</f>
+        <v>0.14787600565996684</v>
+      </c>
+      <c r="J10" cm="1">
+        <f t="array" ref="J10">_xll.OPTION.VALUE($C$3, f,I10, F10)</f>
+        <v>16.839178516441578</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>-1.6933159940890619E-7</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>-1.6</v>
+      </c>
+      <c r="C11" cm="1">
+        <f t="array" ref="C11">_xll.VARIATE.PDF($C$3, $B11, s)</f>
+        <v>9.4049077376886892E-2</v>
+      </c>
+      <c r="D11" cm="1">
+        <f t="array" ref="D11">_xll.VARIATE.PDF($D$3, $B11, s)</f>
+        <v>6.9704470689839662E-2</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>84.789370408791569</v>
+      </c>
+      <c r="G11" cm="1">
+        <f t="array" ref="G11">_xll.OPTION.VALUE($C$3, f, s,$F11)</f>
+        <v>15.400480757407365</v>
+      </c>
+      <c r="H11" cm="1">
+        <f t="array" ref="H11">_xll.OPTION.VALUE($D$3, f, s,$F11)</f>
+        <v>16.105801567583484</v>
+      </c>
+      <c r="I11" s="22" cm="1">
+        <f t="array" ref="I11">_xll.OPTION.IMPLIED($C$3, f, H11, F11)</f>
+        <v>0.14743026761546607</v>
+      </c>
+      <c r="J11" cm="1">
+        <f t="array" ref="J11">_xll.OPTION.VALUE($C$3, f,I11, F11)</f>
+        <v>16.105801597073778</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="1"/>
+        <v>-2.9490294650713622E-8</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>-1.5</v>
+      </c>
+      <c r="C12" cm="1">
+        <f t="array" ref="C12">_xll.VARIATE.PDF($C$3, $B12, s)</f>
+        <v>0.11092083467945553</v>
+      </c>
+      <c r="D12" cm="1">
+        <f t="array" ref="D12">_xll.VARIATE.PDF($D$3, $B12, s)</f>
+        <v>8.1065082079790129E-2</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>85.641517748361352</v>
+      </c>
+      <c r="G12" cm="1">
+        <f t="array" ref="G12">_xll.OPTION.VALUE($C$3, f, s,$F12)</f>
+        <v>14.600023194868115</v>
+      </c>
+      <c r="H12" cm="1">
+        <f t="array" ref="H12">_xll.OPTION.VALUE($D$3, f, s,$F12)</f>
+        <v>15.377966164300645</v>
+      </c>
+      <c r="I12" s="22" cm="1">
+        <f t="array" ref="I12">_xll.OPTION.IMPLIED($C$3, f, H12, F12)</f>
+        <v>0.14702513388440205</v>
+      </c>
+      <c r="J12" cm="1">
+        <f t="array" ref="J12">_xll.OPTION.VALUE($C$3, f,I12, F12)</f>
+        <v>15.377966168809678</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="1"/>
+        <v>-4.5090331468600198E-9</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>-1.4</v>
+      </c>
+      <c r="C13" cm="1">
+        <f t="array" ref="C13">_xll.VARIATE.PDF($C$3, $B13, s)</f>
+        <v>0.12951759566589172</v>
+      </c>
+      <c r="D13" cm="1">
+        <f t="array" ref="D13">_xll.VARIATE.PDF($D$3, $B13, s)</f>
+        <v>9.4048723578568541E-2</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>86.502229311074132</v>
+      </c>
+      <c r="G13" cm="1">
+        <f t="array" ref="G13">_xll.OPTION.VALUE($C$3, f, s,$F13)</f>
+        <v>13.802681617476011</v>
+      </c>
+      <c r="H13" cm="1">
+        <f t="array" ref="H13">_xll.OPTION.VALUE($D$3, f, s,$F13)</f>
+        <v>14.657002233450982</v>
+      </c>
+      <c r="I13" s="22" cm="1">
+        <f t="array" ref="I13">_xll.OPTION.IMPLIED($C$3, f, H13, F13)</f>
+        <v>0.14666198573848974</v>
+      </c>
+      <c r="J13" cm="1">
+        <f t="array" ref="J13">_xll.OPTION.VALUE($C$3, f,I13, F13)</f>
+        <v>14.657002234050296</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="1"/>
+        <v>-5.993143759042141E-10</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>-1.3</v>
+      </c>
+      <c r="C14" cm="1">
+        <f t="array" ref="C14">_xll.VARIATE.PDF($C$3, $B14, s)</f>
+        <v>0.14972746563574482</v>
+      </c>
+      <c r="D14" cm="1">
+        <f t="array" ref="D14">_xll.VARIATE.PDF($D$3, $B14, s)</f>
+        <v>0.10880786118148424</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>87.371591168803448</v>
+      </c>
+      <c r="G14" cm="1">
+        <f t="array" ref="G14">_xll.OPTION.VALUE($C$3, f, s,$F14)</f>
+        <v>13.010355271975456</v>
+      </c>
+      <c r="H14" cm="1">
+        <f t="array" ref="H14">_xll.OPTION.VALUE($D$3, f, s,$F14)</f>
+        <v>13.944289759112635</v>
+      </c>
+      <c r="I14" s="22" cm="1">
+        <f t="array" ref="I14">_xll.OPTION.IMPLIED($C$3, f, H14, F14)</f>
+        <v>0.14634156326002407</v>
+      </c>
+      <c r="J14" cm="1">
+        <f t="array" ref="J14">_xll.OPTION.VALUE($C$3, f,I14, F14)</f>
+        <v>13.944289759180947</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="1"/>
+        <v>-6.8311578615976032E-11</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>-1.2</v>
+      </c>
+      <c r="C15" cm="1">
+        <f t="array" ref="C15">_xll.VARIATE.PDF($C$3, $B15, s)</f>
+        <v>0.17136859204780733</v>
+      </c>
+      <c r="D15" cm="1">
+        <f t="array" ref="D15">_xll.VARIATE.PDF($D$3, $B15, s)</f>
+        <v>0.12548082661844451</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>88.249690258459552</v>
+      </c>
+      <c r="G15" cm="1">
+        <f t="array" ref="G15">_xll.OPTION.VALUE($C$3, f, s,$F15)</f>
+        <v>12.22512403818827</v>
+      </c>
+      <c r="H15" cm="1">
+        <f t="array" ref="H15">_xll.OPTION.VALUE($D$3, f, s,$F15)</f>
+        <v>13.241235819178769</v>
+      </c>
+      <c r="I15" s="22" cm="1">
+        <f t="array" ref="I15">_xll.OPTION.IMPLIED($C$3, f, H15, F15)</f>
+        <v>0.14606372190600991</v>
+      </c>
+      <c r="J15" cm="1">
+        <f t="array" ref="J15">_xll.OPTION.VALUE($C$3, f,I15, F15)</f>
+        <v>13.241235819185306</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="1"/>
+        <v>-6.5369931689929217E-12</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="C16" cm="1">
+        <f t="array" ref="C16">_xll.VARIATE.PDF($C$3, $B16, s)</f>
+        <v>0.1941860549832129</v>
+      </c>
+      <c r="D16" cm="1">
+        <f t="array" ref="D16">_xll.VARIATE.PDF($D$3, $B16, s)</f>
+        <v>0.14417924296111256</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>89.136614390683135</v>
+      </c>
+      <c r="G16" cm="1">
+        <f t="array" ref="G16">_xll.OPTION.VALUE($C$3, f, s,$F16)</f>
+        <v>11.449231947626672</v>
+      </c>
+      <c r="H16" cm="1">
+        <f t="array" ref="H16">_xll.OPTION.VALUE($D$3, f, s,$F16)</f>
+        <v>12.54924563901838</v>
+      </c>
+      <c r="I16" s="22" cm="1">
+        <f t="array" ref="I16">_xll.OPTION.IMPLIED($C$3, f, H16, F16)</f>
+        <v>0.14582714646842015</v>
+      </c>
+      <c r="J16" cm="1">
+        <f t="array" ref="J16">_xll.OPTION.VALUE($C$3, f,I16, F16)</f>
+        <v>12.549245639018906</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="1"/>
+        <v>-5.2580162446247414E-13</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>-1</v>
+      </c>
+      <c r="C17" cm="1">
+        <f t="array" ref="C17">_xll.VARIATE.PDF($C$3, $B17, s)</f>
+        <v>0.2178521770325505</v>
+      </c>
+      <c r="D17" cm="1">
+        <f t="array" ref="D17">_xll.VARIATE.PDF($D$3, $B17, s)</f>
+        <v>0.16497198432624338</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>90.032452258626563</v>
+      </c>
+      <c r="G17" cm="1">
+        <f t="array" ref="G17">_xll.OPTION.VALUE($C$3, f, s,$F17)</f>
+        <v>10.685063221899355</v>
+      </c>
+      <c r="H17" cm="1">
+        <f t="array" ref="H17">_xll.OPTION.VALUE($D$3, f, s,$F17)</f>
+        <v>11.8696876722274</v>
+      </c>
+      <c r="I17" s="22" cm="1">
+        <f t="array" ref="I17">_xll.OPTION.IMPLIED($C$3, f, H17, F17)</f>
+        <v>0.14562902249129611</v>
+      </c>
+      <c r="J17" cm="1">
+        <f t="array" ref="J17">_xll.OPTION.VALUE($C$3, f,I17, F17)</f>
+        <v>11.869687672227428</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="1"/>
+        <v>-2.8421709430404007E-14</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>-0.9</v>
+      </c>
+      <c r="C18" cm="1">
+        <f t="array" ref="C18">_xll.VARIATE.PDF($C$3, $B18, s)</f>
+        <v>0.24197072451914334</v>
+      </c>
+      <c r="D18" cm="1">
+        <f t="array" ref="D18">_xll.VARIATE.PDF($D$3, $B18, s)</f>
+        <v>0.18786558283236218</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>90.937293446823148</v>
+      </c>
+      <c r="G18" cm="1">
+        <f t="array" ref="G18">_xll.OPTION.VALUE($C$3, f, s,$F18)</f>
+        <v>9.9351107905484497</v>
+      </c>
+      <c r="H18" cm="1">
+        <f t="array" ref="H18">_xll.OPTION.VALUE($D$3, f, s,$F18)</f>
+        <v>11.203853611828421</v>
+      </c>
+      <c r="I18" s="22" cm="1">
+        <f t="array" ref="I18">_xll.OPTION.IMPLIED($C$3, f, H18, F18)</f>
+        <v>0.14546467993792722</v>
+      </c>
+      <c r="J18" cm="1">
+        <f t="array" ref="J18">_xll.OPTION.VALUE($C$3, f,I18, F18)</f>
+        <v>11.203853790830095</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="1"/>
+        <v>-1.7900167392781441E-7</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>-0.8</v>
+      </c>
+      <c r="C19" cm="1">
+        <f t="array" ref="C19">_xll.VARIATE.PDF($C$3, $B19, s)</f>
+        <v>0.26608524989875482</v>
+      </c>
+      <c r="D19" cm="1">
+        <f t="array" ref="D19">_xll.VARIATE.PDF($D$3, $B19, s)</f>
+        <v>0.2127814336406389</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>91.851228440145732</v>
+      </c>
+      <c r="G19" cm="1">
+        <f t="array" ref="G19">_xll.OPTION.VALUE($C$3, f, s,$F19)</f>
+        <v>9.2019376367399985</v>
+      </c>
+      <c r="H19" cm="1">
+        <f t="array" ref="H19">_xll.OPTION.VALUE($D$3, f, s,$F19)</f>
+        <v>10.552915208835586</v>
+      </c>
+      <c r="I19" s="22" cm="1">
+        <f t="array" ref="I19">_xll.OPTION.IMPLIED($C$3, f, H19, F19)</f>
+        <v>0.14532718878308284</v>
+      </c>
+      <c r="J19" cm="1">
+        <f t="array" ref="J19">_xll.OPTION.VALUE($C$3, f,I19, F19)</f>
+        <v>10.552915246347958</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="1"/>
+        <v>-3.7512371875436656E-8</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>-0.7</v>
+      </c>
+      <c r="C20" cm="1">
+        <f t="array" ref="C20">_xll.VARIATE.PDF($C$3, $B20, s)</f>
+        <v>0.28969155276148273</v>
+      </c>
+      <c r="D20" cm="1">
+        <f t="array" ref="D20">_xll.VARIATE.PDF($D$3, $B20, s)</f>
+        <v>0.23953080787771314</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>92.774348632855279</v>
+      </c>
+      <c r="G20" cm="1">
+        <f t="array" ref="G20">_xll.OPTION.VALUE($C$3, f, s,$F20)</f>
+        <v>8.4881317366273805</v>
+      </c>
+      <c r="H20" cm="1">
+        <f t="array" ref="H20">_xll.OPTION.VALUE($D$3, f, s,$F20)</f>
+        <v>9.91788097003122</v>
+      </c>
+      <c r="I20" s="22" cm="1">
+        <f t="array" ref="I20">_xll.OPTION.IMPLIED($C$3, f, H20, F20)</f>
+        <v>0.14520705399044512</v>
+      </c>
+      <c r="J20" cm="1">
+        <f t="array" ref="J20">_xll.OPTION.VALUE($C$3, f,I20, F20)</f>
+        <v>9.9178809764506468</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="1"/>
+        <v>-6.4194267679340555E-9</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>-0.6</v>
+      </c>
+      <c r="C21" cm="1">
+        <f t="array" ref="C21">_xll.VARIATE.PDF($C$3, $B21, s)</f>
+        <v>0.31225393336676122</v>
+      </c>
+      <c r="D21" cm="1">
+        <f t="array" ref="D21">_xll.VARIATE.PDF($D$3, $B21, s)</f>
+        <v>0.2677895756791393</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>93.706746337740341</v>
+      </c>
+      <c r="G21" cm="1">
+        <f t="array" ref="G21">_xll.OPTION.VALUE($C$3, f, s,$F21)</f>
+        <v>7.7962557772929273</v>
+      </c>
+      <c r="H21" cm="1">
+        <f t="array" ref="H21">_xll.OPTION.VALUE($D$3, f, s,$F21)</f>
+        <v>9.2995571234057905</v>
+      </c>
+      <c r="I21" s="22" cm="1">
+        <f t="array" ref="I21">_xll.OPTION.IMPLIED($C$3, f, H21, F21)</f>
+        <v>0.14509187770431264</v>
+      </c>
+      <c r="J21" cm="1">
+        <f t="array" ref="J21">_xll.OPTION.VALUE($C$3, f,I21, F21)</f>
+        <v>9.2995571242501498</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="1"/>
+        <v>-8.4435924918579985E-10</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>-0.5</v>
+      </c>
+      <c r="C22" cm="1">
+        <f t="array" ref="C22">_xll.VARIATE.PDF($C$3, $B22, s)</f>
+        <v>0.33322460289179962</v>
+      </c>
+      <c r="D22" cm="1">
+        <f t="array" ref="D22">_xll.VARIATE.PDF($D$3, $B22, s)</f>
+        <v>0.2970756247068968</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>94.648514795348376</v>
+      </c>
+      <c r="G22" cm="1">
+        <f t="array" ref="G22">_xll.OPTION.VALUE($C$3, f, s,$F22)</f>
+        <v>7.1287932286711992</v>
+      </c>
+      <c r="H22" cm="1">
+        <f t="array" ref="H22">_xll.OPTION.VALUE($D$3, f, s,$F22)</f>
+        <v>8.6985184795749859</v>
+      </c>
+      <c r="I22" s="22" cm="1">
+        <f t="array" ref="I22">_xll.OPTION.IMPLIED($C$3, f, H22, F22)</f>
+        <v>0.14496622217408181</v>
+      </c>
+      <c r="J22" cm="1">
+        <f t="array" ref="J22">_xll.OPTION.VALUE($C$3, f,I22, F22)</f>
+        <v>8.6985184796527477</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="1"/>
+        <v>-7.7761797001585364E-11</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>-0.4</v>
+      </c>
+      <c r="C23" cm="1">
+        <f t="array" ref="C23">_xll.VARIATE.PDF($C$3, $B23, s)</f>
+        <v>0.35206532676429947</v>
+      </c>
+      <c r="D23" cm="1">
+        <f t="array" ref="D23">_xll.VARIATE.PDF($D$3, $B23, s)</f>
+        <v>0.32673310235297287</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>95.599748183309984</v>
+      </c>
+      <c r="G23" cm="1">
+        <f t="array" ref="G23">_xll.OPTION.VALUE($C$3, f, s,$F23)</f>
+        <v>6.4880926755878647</v>
+      </c>
+      <c r="H23" cm="1">
+        <f t="array" ref="H23">_xll.OPTION.VALUE($D$3, f, s,$F23)</f>
+        <v>8.1150956672493351</v>
+      </c>
+      <c r="I23" s="22" cm="1">
+        <f t="array" ref="I23">_xll.OPTION.IMPLIED($C$3, f, H23, F23)</f>
+        <v>0.14481166612749297</v>
+      </c>
+      <c r="J23" cm="1">
+        <f t="array" ref="J23">_xll.OPTION.VALUE($C$3, f,I23, F23)</f>
+        <v>8.115095667253641</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="1"/>
+        <v>-4.3058889787062071E-12</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>-0.3</v>
+      </c>
+      <c r="C24" cm="1">
+        <f t="array" ref="C24">_xll.VARIATE.PDF($C$3, $B24, s)</f>
+        <v>0.36827014030332328</v>
+      </c>
+      <c r="D24" cm="1">
+        <f t="array" ref="D24">_xll.VARIATE.PDF($D$3, $B24, s)</f>
+        <v>0.35592856495173131</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>96.560541625756642</v>
+      </c>
+      <c r="G24" cm="1">
+        <f t="array" ref="G24">_xll.OPTION.VALUE($C$3, f, s,$F24)</f>
+        <v>5.8763125577255693</v>
+      </c>
+      <c r="H24" cm="1">
+        <f t="array" ref="H24">_xll.OPTION.VALUE($D$3, f, s,$F24)</f>
+        <v>7.5493852640110717</v>
+      </c>
+      <c r="I24" s="22" cm="1">
+        <f t="array" ref="I24">_xll.OPTION.IMPLIED($C$3, f, H24, F24)</f>
+        <v>0.14460716383626068</v>
+      </c>
+      <c r="J24" cm="1">
+        <f t="array" ref="J24">_xll.OPTION.VALUE($C$3, f,I24, F24)</f>
+        <v>7.5493852640111783</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="1"/>
+        <v>-1.0658141036401503E-13</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>-0.2</v>
+      </c>
+      <c r="C25" cm="1">
+        <f t="array" ref="C25">_xll.VARIATE.PDF($C$3, $B25, s)</f>
+        <v>0.38138781546052403</v>
+      </c>
+      <c r="D25" cm="1">
+        <f t="array" ref="D25">_xll.VARIATE.PDF($D$3, $B25, s)</f>
+        <v>0.38366451532547252</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>97.530991202833263</v>
+      </c>
+      <c r="G25" cm="1">
+        <f t="array" ref="G25">_xll.OPTION.VALUE($C$3, f, s,$F25)</f>
+        <v>5.295368593434354</v>
+      </c>
+      <c r="H25" cm="1">
+        <f t="array" ref="H25">_xll.OPTION.VALUE($D$3, f, s,$F25)</f>
+        <v>7.0012881209264179</v>
+      </c>
+      <c r="I25" s="22" cm="1">
+        <f t="array" ref="I25">_xll.OPTION.IMPLIED($C$3, f, H25, F25)</f>
+        <v>0.14432979745562452</v>
+      </c>
+      <c r="J25" cm="1">
+        <f t="array" ref="J25">_xll.OPTION.VALUE($C$3, f,I25, F25)</f>
+        <v>7.0012886478168781</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="1"/>
+        <v>-5.2689046015075292E-7</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>-0.1</v>
+      </c>
+      <c r="C26" cm="1">
+        <f t="array" ref="C26">_xll.VARIATE.PDF($C$3, $B26, s)</f>
+        <v>0.39104269397545582</v>
+      </c>
+      <c r="D26" cm="1">
+        <f t="array" ref="D26">_xll.VARIATE.PDF($D$3, $B26, s)</f>
+        <v>0.40881520246197511</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>98.511193960306258</v>
+      </c>
+      <c r="G26" cm="1">
+        <f t="array" ref="G26">_xll.OPTION.VALUE($C$3, f, s,$F26)</f>
+        <v>4.746886160740253</v>
+      </c>
+      <c r="H26" cm="1">
+        <f t="array" ref="H26">_xll.OPTION.VALUE($D$3, f, s,$F26)</f>
+        <v>6.4705783133044292</v>
+      </c>
+      <c r="I26" s="22" cm="1">
+        <f t="array" ref="I26">_xll.OPTION.IMPLIED($C$3, f, H26, F26)</f>
+        <v>0.14395587367923701</v>
+      </c>
+      <c r="J26" cm="1">
+        <f t="array" ref="J26">_xll.OPTION.VALUE($C$3, f,I26, F26)</f>
+        <v>6.4705783250738662</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="1"/>
+        <v>-1.1769436980557657E-8</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27" cm="1">
+        <f t="array" ref="C27">_xll.VARIATE.PDF($C$3, $B27, s)</f>
+        <v>0.39695254747701175</v>
+      </c>
+      <c r="D27" cm="1">
+        <f t="array" ref="D27">_xll.VARIATE.PDF($D$3, $B27, s)</f>
+        <v>0.43018753019765577</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>99.501247919268238</v>
+      </c>
+      <c r="G27" cm="1">
+        <f t="array" ref="G27">_xll.OPTION.VALUE($C$3, f, s,$F27)</f>
+        <v>4.2321597680687688</v>
+      </c>
+      <c r="H27" cm="1">
+        <f t="array" ref="H27">_xll.OPTION.VALUE($D$3, f, s,$F27)</f>
+        <v>5.9570005301529676</v>
+      </c>
+      <c r="I27" s="22" cm="1">
+        <f t="array" ref="I27">_xll.OPTION.IMPLIED($C$3, f, H27, F27)</f>
+        <v>0.1434626364903113</v>
+      </c>
+      <c r="J27" cm="1">
+        <f t="array" ref="J27">_xll.OPTION.VALUE($C$3, f,I27, F27)</f>
+        <v>5.9570005300922375</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="1"/>
+        <v>6.0730087625415763E-11</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>0.1</v>
+      </c>
+      <c r="C28" cm="1">
+        <f t="array" ref="C28">_xll.VARIATE.PDF($C$3, $B28, s)</f>
+        <v>0.39894228040143265</v>
+      </c>
+      <c r="D28" cm="1">
+        <f t="array" ref="D28">_xll.VARIATE.PDF($D$3, $B28, s)</f>
+        <v>0.44660628321101875</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>100.5012520859401</v>
+      </c>
+      <c r="G28" cm="1">
+        <f t="array" ref="G28">_xll.OPTION.VALUE($C$3, f, s,$F28)</f>
+        <v>3.7521214712464399</v>
+      </c>
+      <c r="H28" cm="1">
+        <f t="array" ref="H28">_xll.OPTION.VALUE($D$3, f, s,$F28)</f>
+        <v>5.460387707483477</v>
+      </c>
+      <c r="I28" s="22" cm="1">
+        <f t="array" ref="I28">_xll.OPTION.IMPLIED($C$3, f, H28, F28)</f>
+        <v>0.14283003208008002</v>
+      </c>
+      <c r="J28" cm="1">
+        <f t="array" ref="J28">_xll.OPTION.VALUE($C$3, f,I28, F28)</f>
+        <v>5.4603877074277918</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="1"/>
+        <v>5.5685234201519052E-11</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>0.2</v>
+      </c>
+      <c r="C29" cm="1">
+        <f t="array" ref="C29">_xll.VARIATE.PDF($C$3, $B29, s)</f>
+        <v>0.39695254747701175</v>
+      </c>
+      <c r="D29" cm="1">
+        <f t="array" ref="D29">_xll.VARIATE.PDF($D$3, $B29, s)</f>
+        <v>0.45701787903378838</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>101.51130646157189</v>
+      </c>
+      <c r="G29" cm="1">
+        <f t="array" ref="G29">_xll.OPTION.VALUE($C$3, f, s,$F29)</f>
+        <v>3.3073196964390874</v>
+      </c>
+      <c r="H29" cm="1">
+        <f t="array" ref="H29">_xll.OPTION.VALUE($D$3, f, s,$F29)</f>
+        <v>4.9807843047185116</v>
+      </c>
+      <c r="I29" s="22" cm="1">
+        <f t="array" ref="I29">_xll.OPTION.IMPLIED($C$3, f, H29, F29)</f>
+        <v>0.14204280532451724</v>
+      </c>
+      <c r="J29" cm="1">
+        <f t="array" ref="J29">_xll.OPTION.VALUE($C$3, f,I29, F29)</f>
+        <v>4.9807843160154235</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="1"/>
+        <v>-1.1296911850422475E-8</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>0.3</v>
+      </c>
+      <c r="C30" cm="1">
+        <f t="array" ref="C30">_xll.VARIATE.PDF($C$3, $B30, s)</f>
+        <v>0.39104269397545582</v>
+      </c>
+      <c r="D30" cm="1">
+        <f t="array" ref="D30">_xll.VARIATE.PDF($D$3, $B30, s)</f>
+        <v>0.46060134926128465</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>102.53151205244289</v>
+      </c>
+      <c r="G30" cm="1">
+        <f t="array" ref="G30">_xll.OPTION.VALUE($C$3, f, s,$F30)</f>
+        <v>2.8979094351555332</v>
+      </c>
+      <c r="H30" cm="1">
+        <f t="array" ref="H30">_xll.OPTION.VALUE($D$3, f, s,$F30)</f>
+        <v>4.5185554022053651</v>
+      </c>
+      <c r="I30" s="22" cm="1">
+        <f t="array" ref="I30">_xll.OPTION.IMPLIED($C$3, f, H30, F30)</f>
+        <v>0.14109239452979944</v>
+      </c>
+      <c r="J30" cm="1">
+        <f t="array" ref="J30">_xll.OPTION.VALUE($C$3, f,I30, F30)</f>
+        <v>4.5185558590742758</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="1"/>
+        <v>-4.568689107031787E-7</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>0.4</v>
+      </c>
+      <c r="C31" cm="1">
+        <f t="array" ref="C31">_xll.VARIATE.PDF($C$3, $B31, s)</f>
+        <v>0.38138781546052403</v>
+      </c>
+      <c r="D31" cm="1">
+        <f t="array" ref="D31">_xll.VARIATE.PDF($D$3, $B31, s)</f>
+        <v>0.45687067340769921</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>103.56197087996233</v>
+      </c>
+      <c r="G31" cm="1">
+        <f t="array" ref="G31">_xll.OPTION.VALUE($C$3, f, s,$F31)</f>
+        <v>2.5236542198850032</v>
+      </c>
+      <c r="H31" cm="1">
+        <f t="array" ref="H31">_xll.OPTION.VALUE($D$3, f, s,$F31)</f>
+        <v>4.0744596336129817</v>
+      </c>
+      <c r="I31" s="22" cm="1">
+        <f t="array" ref="I31">_xll.OPTION.IMPLIED($C$3, f, H31, F31)</f>
+        <v>0.13997833140181179</v>
+      </c>
+      <c r="J31" cm="1">
+        <f t="array" ref="J31">_xll.OPTION.VALUE($C$3, f,I31, F31)</f>
+        <v>4.0744596336130456</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="1"/>
+        <v>-6.3948846218409017E-14</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>0.5</v>
+      </c>
+      <c r="C32" cm="1">
+        <f t="array" ref="C32">_xll.VARIATE.PDF($C$3, $B32, s)</f>
+        <v>0.36827014030332328</v>
+      </c>
+      <c r="D32" cm="1">
+        <f t="array" ref="D32">_xll.VARIATE.PDF($D$3, $B32, s)</f>
+        <v>0.44575062286573297</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>104.60278599087169</v>
+      </c>
+      <c r="G32" cm="1">
+        <f t="array" ref="G32">_xll.OPTION.VALUE($C$3, f, s,$F32)</f>
+        <v>2.1839397054628762</v>
+      </c>
+      <c r="H32" cm="1">
+        <f t="array" ref="H32">_xll.OPTION.VALUE($D$3, f, s,$F32)</f>
+        <v>3.6496664345329677</v>
+      </c>
+      <c r="I32" s="22" cm="1">
+        <f t="array" ref="I32">_xll.OPTION.IMPLIED($C$3, f, H32, F32)</f>
+        <v>0.13870908474385632</v>
+      </c>
+      <c r="J32" cm="1">
+        <f t="array" ref="J32">_xll.OPTION.VALUE($C$3, f,I32, F32)</f>
+        <v>3.6496664345354759</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="1"/>
+        <v>-2.5082158572331537E-12</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>0.6</v>
+      </c>
+      <c r="C33" cm="1">
+        <f t="array" ref="C33">_xll.VARIATE.PDF($C$3, $B33, s)</f>
+        <v>0.35206532676429947</v>
+      </c>
+      <c r="D33" cm="1">
+        <f t="array" ref="D33">_xll.VARIATE.PDF($D$3, $B33, s)</f>
+        <v>0.42761026718783418</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>105.65406146754943</v>
+      </c>
+      <c r="G33" cm="1">
+        <f t="array" ref="G33">_xll.OPTION.VALUE($C$3, f, s,$F33)</f>
+        <v>1.8777981121653475</v>
+      </c>
+      <c r="H33" cm="1">
+        <f t="array" ref="H33">_xll.OPTION.VALUE($D$3, f, s,$F33)</f>
+        <v>3.2457057479515576</v>
+      </c>
+      <c r="I33" s="22" cm="1">
+        <f t="array" ref="I33">_xll.OPTION.IMPLIED($C$3, f, H33, F33)</f>
+        <v>0.13730177129037938</v>
+      </c>
+      <c r="J33" cm="1">
+        <f t="array" ref="J33">_xll.OPTION.VALUE($C$3, f,I33, F33)</f>
+        <v>3.2457057479896605</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="1"/>
+        <v>-3.8102854205135372E-11</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>0.7</v>
+      </c>
+      <c r="C34" cm="1">
+        <f t="array" ref="C34">_xll.VARIATE.PDF($C$3, $B34, s)</f>
+        <v>0.33322460289179962</v>
+      </c>
+      <c r="D34" cm="1">
+        <f t="array" ref="D34">_xll.VARIATE.PDF($D$3, $B34, s)</f>
+        <v>0.40324457968947192</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>106.71590243841926</v>
+      </c>
+      <c r="G34" cm="1">
+        <f t="array" ref="G34">_xll.OPTION.VALUE($C$3, f, s,$F34)</f>
+        <v>1.6039422707262858</v>
+      </c>
+      <c r="H34" cm="1">
+        <f t="array" ref="H34">_xll.OPTION.VALUE($D$3, f, s,$F34)</f>
+        <v>2.8643501809840366</v>
+      </c>
+      <c r="I34" s="22" cm="1">
+        <f t="array" ref="I34">_xll.OPTION.IMPLIED($C$3, f, H34, F34)</f>
+        <v>0.13578110351656894</v>
+      </c>
+      <c r="J34" cm="1">
+        <f t="array" ref="J34">_xll.OPTION.VALUE($C$3, f,I34, F34)</f>
+        <v>2.864350181323239</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="1"/>
+        <v>-3.3920244391083543E-10</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>0.8</v>
+      </c>
+      <c r="C35" cm="1">
+        <f t="array" ref="C35">_xll.VARIATE.PDF($C$3, $B35, s)</f>
+        <v>0.31225393336676122</v>
+      </c>
+      <c r="D35" cm="1">
+        <f t="array" ref="D35">_xll.VARIATE.PDF($D$3, $B35, s)</f>
+        <v>0.37380404754107416</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>107.78841508846315</v>
+      </c>
+      <c r="G35" cm="1">
+        <f t="array" ref="G35">_xll.OPTION.VALUE($C$3, f, s,$F35)</f>
+        <v>1.3608075810683147</v>
+      </c>
+      <c r="H35" cm="1">
+        <f t="array" ref="H35">_xll.OPTION.VALUE($D$3, f, s,$F35)</f>
+        <v>2.5074430706893942</v>
+      </c>
+      <c r="I35" s="22" cm="1">
+        <f t="array" ref="I35">_xll.OPTION.IMPLIED($C$3, f, H35, F35)</f>
+        <v>0.13417748103599991</v>
+      </c>
+      <c r="J35" cm="1">
+        <f t="array" ref="J35">_xll.OPTION.VALUE($C$3, f,I35, F35)</f>
+        <v>2.5074430727527677</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="1"/>
+        <v>-2.0633734720831853E-9</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>0.9</v>
+      </c>
+      <c r="C36" cm="1">
+        <f t="array" ref="C36">_xll.VARIATE.PDF($C$3, $B36, s)</f>
+        <v>0.28969155276148267</v>
+      </c>
+      <c r="D36" cm="1">
+        <f t="array" ref="D36">_xll.VARIATE.PDF($D$3, $B36, s)</f>
+        <v>0.34068244896781363</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>108.87170666983988</v>
+      </c>
+      <c r="G36" cm="1">
+        <f t="array" ref="G36">_xll.OPTION.VALUE($C$3, f, s,$F36)</f>
+        <v>1.1465998819733123</v>
+      </c>
+      <c r="H36" cm="1">
+        <f t="array" ref="H36">_xll.OPTION.VALUE($D$3, f, s,$F36)</f>
+        <v>2.1766974715714866</v>
+      </c>
+      <c r="I36" s="22" cm="1">
+        <f t="array" ref="I36">_xll.OPTION.IMPLIED($C$3, f, H36, F36)</f>
+        <v>0.13252459531778216</v>
+      </c>
+      <c r="J36" cm="1">
+        <f t="array" ref="J36">_xll.OPTION.VALUE($C$3, f,I36, F36)</f>
+        <v>2.1766974809738109</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="1"/>
+        <v>-9.4023242525054229E-9</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" cm="1">
+        <f t="array" ref="C37">_xll.VARIATE.PDF($C$3, $B37, s)</f>
+        <v>0.26608524989875482</v>
+      </c>
+      <c r="D37" cm="1">
+        <f t="array" ref="D37">_xll.VARIATE.PDF($D$3, $B37, s)</f>
+        <v>0.30538109873755159</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>109.96588551261028</v>
+      </c>
+      <c r="G37" cm="1">
+        <f t="array" ref="G37">_xll.OPTION.VALUE($C$3, f, s,$F37)</f>
+        <v>0.95934704487524058</v>
+      </c>
+      <c r="H37" cm="1">
+        <f t="array" ref="H37">_xll.OPTION.VALUE($D$3, f, s,$F37)</f>
+        <v>1.8734974466605436</v>
+      </c>
+      <c r="I37" s="22" cm="1">
+        <f t="array" ref="I37">_xll.OPTION.IMPLIED($C$3, f, H37, F37)</f>
+        <v>0.13085689783614893</v>
+      </c>
+      <c r="J37" cm="1">
+        <f t="array" ref="J37">_xll.OPTION.VALUE($C$3, f,I37, F37)</f>
+        <v>1.8734974807671385</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="1"/>
+        <v>-3.4106594881677665E-8</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C38" cm="1">
+        <f t="array" ref="C38">_xll.VARIATE.PDF($C$3, $B38, s)</f>
+        <v>0.24197072451914334</v>
+      </c>
+      <c r="D38" cm="1">
+        <f t="array" ref="D38">_xll.VARIATE.PDF($D$3, $B38, s)</f>
+        <v>0.26937156074829266</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="0"/>
+        <v>111.07106103557052</v>
+      </c>
+      <c r="G38" cm="1">
+        <f t="array" ref="G38">_xll.OPTION.VALUE($C$3, f, s,$F38)</f>
+        <v>0.79695205731460561</v>
+      </c>
+      <c r="H38" cm="1">
+        <f t="array" ref="H38">_xll.OPTION.VALUE($D$3, f, s,$F38)</f>
+        <v>1.59873240760332</v>
+      </c>
+      <c r="I38" s="22" cm="1">
+        <f t="array" ref="I38">_xll.OPTION.IMPLIED($C$3, f, H38, F38)</f>
+        <v>0.12920727972643456</v>
+      </c>
+      <c r="J38" cm="1">
+        <f t="array" ref="J38">_xll.OPTION.VALUE($C$3, f,I38, F38)</f>
+        <v>1.5987325104343562</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="1"/>
+        <v>-1.0283103613062394E-7</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>1.2</v>
+      </c>
+      <c r="C39" cm="1">
+        <f t="array" ref="C39">_xll.VARIATE.PDF($C$3, $B39, s)</f>
+        <v>0.21785217703255055</v>
+      </c>
+      <c r="D39" cm="1">
+        <f t="array" ref="D39">_xll.VARIATE.PDF($D$3, $B39, s)</f>
+        <v>0.23397724698360206</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="0"/>
+        <v>112.18734375719383</v>
+      </c>
+      <c r="G39" cm="1">
+        <f t="array" ref="G39">_xll.OPTION.VALUE($C$3, f, s,$F39)</f>
+        <v>0.65724544544855412</v>
+      </c>
+      <c r="H39" cm="1">
+        <f t="array" ref="H39">_xll.OPTION.VALUE($D$3, f, s,$F39)</f>
+        <v>1.3526879301091466</v>
+      </c>
+      <c r="I39" s="22" cm="1">
+        <f t="array" ref="I39">_xll.OPTION.IMPLIED($C$3, f, H39, F39)</f>
+        <v>0.1276052253173465</v>
+      </c>
+      <c r="J39" cm="1">
+        <f t="array" ref="J39">_xll.OPTION.VALUE($C$3, f,I39, F39)</f>
+        <v>1.3526881963013864</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="1"/>
+        <v>-2.6619223980617335E-7</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>1.3</v>
+      </c>
+      <c r="C40" cm="1">
+        <f t="array" ref="C40">_xll.VARIATE.PDF($C$3, $B40, s)</f>
+        <v>0.19418605498321292</v>
+      </c>
+      <c r="D40" cm="1">
+        <f t="array" ref="D40">_xll.VARIATE.PDF($D$3, $B40, s)</f>
+        <v>0.2002883655345663</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>113.31484530668263</v>
+      </c>
+      <c r="G40" cm="1">
+        <f t="array" ref="G40">_xll.OPTION.VALUE($C$3, f, s,$F40)</f>
+        <v>0.53803508574048564</v>
+      </c>
+      <c r="H40" cm="1">
+        <f t="array" ref="H40">_xll.OPTION.VALUE($D$3, f, s,$F40)</f>
+        <v>1.1350047633731091</v>
+      </c>
+      <c r="I40" s="22" cm="1">
+        <f t="array" ref="I40">_xll.OPTION.IMPLIED($C$3, f, H40, F40)</f>
+        <v>0.12607555444863117</v>
+      </c>
+      <c r="J40" cm="1">
+        <f t="array" ref="J40">_xll.OPTION.VALUE($C$3, f,I40, F40)</f>
+        <v>1.1350047633731677</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="1"/>
+        <v>-5.8619775700208265E-14</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>1.4</v>
+      </c>
+      <c r="C41" cm="1">
+        <f t="array" ref="C41">_xll.VARIATE.PDF($C$3, $B41, s)</f>
+        <v>0.17136859204780738</v>
+      </c>
+      <c r="D41" cm="1">
+        <f t="array" ref="D41">_xll.VARIATE.PDF($D$3, $B41, s)</f>
+        <v>0.16911649168468645</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="0"/>
+        <v>114.45367843513145</v>
+      </c>
+      <c r="G41" cm="1">
+        <f t="array" ref="G41">_xll.OPTION.VALUE($C$3, f, s,$F41)</f>
+        <v>0.43715175112352078</v>
+      </c>
+      <c r="H41" cm="1">
+        <f t="array" ref="H41">_xll.OPTION.VALUE($D$3, f, s,$F41)</f>
+        <v>0.94470499226772553</v>
+      </c>
+      <c r="I41" s="22" cm="1">
+        <f t="array" ref="I41">_xll.OPTION.IMPLIED($C$3, f, H41, F41)</f>
+        <v>0.1246378792230963</v>
+      </c>
+      <c r="J41" cm="1">
+        <f t="array" ref="J41">_xll.OPTION.VALUE($C$3, f,I41, F41)</f>
+        <v>0.94470499226803994</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="1"/>
+        <v>-3.1441516057384433E-13</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>1.5</v>
+      </c>
+      <c r="C42" cm="1">
+        <f t="array" ref="C42">_xll.VARIATE.PDF($C$3, $B42, s)</f>
+        <v>0.14972746563574485</v>
+      </c>
+      <c r="D42" cm="1">
+        <f t="array" ref="D42">_xll.VARIATE.PDF($D$3, $B42, s)</f>
+        <v>0.14098707347492739</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="0"/>
+        <v>115.60395702680218</v>
+      </c>
+      <c r="G42" cm="1">
+        <f t="array" ref="G42">_xll.OPTION.VALUE($C$3, f, s,$F42)</f>
+        <v>0.35248909881112667</v>
+      </c>
+      <c r="H42" cm="1">
+        <f t="array" ref="H42">_xll.OPTION.VALUE($D$3, f, s,$F42)</f>
+        <v>0.78027366077427107</v>
+      </c>
+      <c r="I42" s="22" cm="1">
+        <f t="array" ref="I42">_xll.OPTION.IMPLIED($C$3, f, H42, F42)</f>
+        <v>0.12330646158638679</v>
+      </c>
+      <c r="J42" cm="1">
+        <f t="array" ref="J42">_xll.OPTION.VALUE($C$3, f,I42, F42)</f>
+        <v>0.78027366077568949</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="1"/>
+        <v>-1.4184209362611E-12</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>1.6</v>
+      </c>
+      <c r="C43" cm="1">
+        <f t="array" ref="C43">_xll.VARIATE.PDF($C$3, $B43, s)</f>
+        <v>0.12951759566589172</v>
+      </c>
+      <c r="D43" cm="1">
+        <f t="array" ref="D43">_xll.VARIATE.PDF($D$3, $B43, s)</f>
+        <v>0.11616233094851552</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="0"/>
+        <v>116.76579611051253</v>
+      </c>
+      <c r="G43" cm="1">
+        <f t="array" ref="G43">_xll.OPTION.VALUE($C$3, f, s,$F43)</f>
+        <v>0.2820372052947091</v>
+      </c>
+      <c r="H43" cm="1">
+        <f t="array" ref="H43">_xll.OPTION.VALUE($D$3, f, s,$F43)</f>
+        <v>0.63977765057268332</v>
+      </c>
+      <c r="I43" s="22" cm="1">
+        <f t="array" ref="I43">_xll.OPTION.IMPLIED($C$3, f, H43, F43)</f>
+        <v>0.12209060450978634</v>
+      </c>
+      <c r="J43" cm="1">
+        <f t="array" ref="J43">_xll.OPTION.VALUE($C$3, f,I43, F43)</f>
+        <v>0.63977765057842895</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="1"/>
+        <v>-5.7456261970401101E-12</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>1.7</v>
+      </c>
+      <c r="C44" cm="1">
+        <f t="array" ref="C44">_xll.VARIATE.PDF($C$3, $B44, s)</f>
+        <v>0.11092083467945557</v>
+      </c>
+      <c r="D44" cm="1">
+        <f t="array" ref="D44">_xll.VARIATE.PDF($D$3, $B44, s)</f>
+        <v>9.4684103483545889E-2</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="0"/>
+        <v>117.93931187113907</v>
+      </c>
+      <c r="G44" cm="1">
+        <f t="array" ref="G44">_xll.OPTION.VALUE($C$3, f, s,$F44)</f>
+        <v>0.22390915899435093</v>
+      </c>
+      <c r="H44" cm="1">
+        <f t="array" ref="H44">_xll.OPTION.VALUE($D$3, f, s,$F44)</f>
+        <v>0.52100175171613161</v>
+      </c>
+      <c r="I44" s="22" cm="1">
+        <f t="array" ref="I44">_xll.OPTION.IMPLIED($C$3, f, H44, F44)</f>
+        <v>0.12099525223649538</v>
+      </c>
+      <c r="J44" cm="1">
+        <f t="array" ref="J44">_xll.OPTION.VALUE($C$3, f,I44, F44)</f>
+        <v>0.52100175173666052</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="1"/>
+        <v>-2.0528911903738845E-11</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>1.8</v>
+      </c>
+      <c r="C45" cm="1">
+        <f t="array" ref="C45">_xll.VARIATE.PDF($C$3, $B45, s)</f>
+        <v>9.4049077376886933E-2</v>
+      </c>
+      <c r="D45" cm="1">
+        <f t="array" ref="D45">_xll.VARIATE.PDF($D$3, $B45, s)</f>
+        <v>7.6426061185669428E-2</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="0"/>
+        <v>119.12462166123581</v>
+      </c>
+      <c r="G45" cm="1">
+        <f t="array" ref="G45">_xll.OPTION.VALUE($C$3, f, s,$F45)</f>
+        <v>0.17636060535953568</v>
+      </c>
+      <c r="H45" cm="1">
+        <f t="array" ref="H45">_xll.OPTION.VALUE($D$3, f, s,$F45)</f>
+        <v>0.42158390430104742</v>
+      </c>
+      <c r="I45" s="22" cm="1">
+        <f t="array" ref="I45">_xll.OPTION.IMPLIED($C$3, f, H45, F45)</f>
+        <v>0.1200217286529016</v>
+      </c>
+      <c r="J45" cm="1">
+        <f t="array" ref="J45">_xll.OPTION.VALUE($C$3, f,I45, F45)</f>
+        <v>0.42158390436775495</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="1"/>
+        <v>-6.6707528389997606E-11</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>1.9</v>
+      </c>
+      <c r="C46" cm="1">
+        <f t="array" ref="C46">_xll.VARIATE.PDF($C$3, $B46, s)</f>
+        <v>7.8950158300894177E-2</v>
+      </c>
+      <c r="D46" cm="1">
+        <f t="array" ref="D46">_xll.VARIATE.PDF($D$3, $B46, s)</f>
+        <v>6.1146495029372888E-2</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="0"/>
+        <v>120.32184401276953</v>
+      </c>
+      <c r="G46" cm="1">
+        <f t="array" ref="G46">_xll.OPTION.VALUE($C$3, f, s,$F46)</f>
+        <v>0.13780248052824717</v>
+      </c>
+      <c r="H46" cm="1">
+        <f t="array" ref="H46">_xll.OPTION.VALUE($D$3, f, s,$F46)</f>
+        <v>0.33913606322359202</v>
+      </c>
+      <c r="I46" s="22" cm="1">
+        <f t="array" ref="I46">_xll.OPTION.IMPLIED($C$3, f, H46, F46)</f>
+        <v>0.11916850010073253</v>
+      </c>
+      <c r="J46" cm="1">
+        <f t="array" ref="J46">_xll.OPTION.VALUE($C$3, f,I46, F46)</f>
+        <v>0.33913606342529246</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="1"/>
+        <v>-2.0170043413259009E-10</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="C47" cm="1">
+        <f t="array" ref="C47">_xll.VARIATE.PDF($C$3, $B47, s)</f>
+        <v>6.5615814774676581E-2</v>
+      </c>
+      <c r="D47" cm="1">
+        <f t="array" ref="D47">_xll.VARIATE.PDF($D$3, $B47, s)</f>
+        <v>4.8535616272378283E-2</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="0"/>
+        <v>121.53109864897307</v>
+      </c>
+      <c r="G47" cm="1">
+        <f t="array" ref="G47">_xll.OPTION.VALUE($C$3, f, s,$F47)</f>
+        <v>0.10680745152886129</v>
+      </c>
+      <c r="H47" cm="1">
+        <f t="array" ref="H47">_xll.OPTION.VALUE($D$3, f, s,$F47)</f>
+        <v>0.27134247467352268</v>
+      </c>
+      <c r="I47" s="22" cm="1">
+        <f t="array" ref="I47">_xll.OPTION.IMPLIED($C$3, f, H47, F47)</f>
+        <v>0.11843189193031237</v>
+      </c>
+      <c r="J47" cm="1">
+        <f t="array" ref="J47">_xll.OPTION.VALUE($C$3, f,I47, F47)</f>
+        <v>0.27134247525073452</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="1"/>
+        <v>-5.7721183388537156E-10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>